--- a/PM_16_03_2019/Progress Monitoring Kishoregonj/Netrokona_Breakup/Netrokona_Projection.xlsx
+++ b/PM_16_03_2019/Progress Monitoring Kishoregonj/Netrokona_Breakup/Netrokona_Projection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="10428" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="HaorCode" sheetId="9" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="5">Sunamgonj!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="9">Sunamgonj_Categorical_Projectio!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3558,10 +3558,10 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3822,26 +3822,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="D40" zoomScale="55" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="D28" zoomScale="55" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="H59" sqref="H58:H59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="54.44140625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" customWidth="1"/>
-    <col min="11" max="13" width="24.28515625" customWidth="1"/>
-    <col min="14" max="14" width="33.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="23.28515625" style="99" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" customWidth="1"/>
+    <col min="11" max="13" width="24.33203125" customWidth="1"/>
+    <col min="14" max="14" width="33.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="23.33203125" style="99" customWidth="1"/>
+    <col min="17" max="17" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="63">
@@ -5517,7 +5517,7 @@
       <c r="P40" s="113"/>
       <c r="Q40" s="34"/>
     </row>
-    <row r="41" spans="1:17" ht="42.95" customHeight="1">
+    <row r="41" spans="1:17" ht="42.9" customHeight="1">
       <c r="A41" s="97">
         <v>12</v>
       </c>
@@ -5559,7 +5559,7 @@
       <c r="P41" s="110"/>
       <c r="Q41" s="31"/>
     </row>
-    <row r="42" spans="1:17" ht="42.95" customHeight="1">
+    <row r="42" spans="1:17" ht="42.9" customHeight="1">
       <c r="A42" s="97">
         <v>13</v>
       </c>
@@ -5601,7 +5601,7 @@
       <c r="P42" s="113"/>
       <c r="Q42" s="31"/>
     </row>
-    <row r="43" spans="1:17" ht="42.95" customHeight="1">
+    <row r="43" spans="1:17" ht="42.9" customHeight="1">
       <c r="A43" s="97">
         <v>19</v>
       </c>
@@ -5643,7 +5643,7 @@
       <c r="P43" s="110"/>
       <c r="Q43" s="31"/>
     </row>
-    <row r="44" spans="1:17" ht="42.95" customHeight="1">
+    <row r="44" spans="1:17" ht="42.9" customHeight="1">
       <c r="A44" s="97">
         <v>20</v>
       </c>
@@ -5685,7 +5685,7 @@
       <c r="P44" s="113"/>
       <c r="Q44" s="31"/>
     </row>
-    <row r="45" spans="1:17" ht="42.95" customHeight="1">
+    <row r="45" spans="1:17" ht="42.9" customHeight="1">
       <c r="A45" s="97">
         <v>21</v>
       </c>
@@ -5727,7 +5727,7 @@
       <c r="P45" s="110"/>
       <c r="Q45" s="31"/>
     </row>
-    <row r="46" spans="1:17" ht="42.95" customHeight="1">
+    <row r="46" spans="1:17" ht="42.9" customHeight="1">
       <c r="A46" s="97">
         <v>22</v>
       </c>
@@ -5769,7 +5769,7 @@
       <c r="P46" s="110"/>
       <c r="Q46" s="31"/>
     </row>
-    <row r="47" spans="1:17" ht="42.95" customHeight="1">
+    <row r="47" spans="1:17" ht="42.9" customHeight="1">
       <c r="A47" s="97">
         <v>46</v>
       </c>
@@ -5811,7 +5811,7 @@
       <c r="P47" s="112"/>
       <c r="Q47" s="31"/>
     </row>
-    <row r="48" spans="1:17" ht="42.95" customHeight="1">
+    <row r="48" spans="1:17" ht="42.9" customHeight="1">
       <c r="A48" s="97">
         <v>47</v>
       </c>
@@ -5853,7 +5853,7 @@
       <c r="P48" s="114"/>
       <c r="Q48" s="31"/>
     </row>
-    <row r="49" spans="1:16" ht="42.95" customHeight="1">
+    <row r="49" spans="1:16" ht="42.9" customHeight="1">
       <c r="A49" s="126" t="s">
         <v>118</v>
       </c>
@@ -5888,7 +5888,7 @@
       <c r="O49" s="19"/>
       <c r="P49" s="115"/>
     </row>
-    <row r="50" spans="1:16" ht="32.450000000000003" customHeight="1"/>
+    <row r="50" spans="1:16" ht="32.4" customHeight="1"/>
   </sheetData>
   <sortState ref="A2:P48">
     <sortCondition ref="M2:M48"/>
@@ -5915,21 +5915,21 @@
       <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="49.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="9" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" hidden="1" customWidth="1"/>
-    <col min="13" max="16" width="13.140625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="49.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="9" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" hidden="1" customWidth="1"/>
+    <col min="13" max="16" width="13.109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="14.88671875" hidden="1" customWidth="1"/>
     <col min="18" max="19" width="0" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="17.6640625" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7103,24 +7103,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B19" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="1" max="1" width="48.88671875" customWidth="1"/>
     <col min="2" max="2" width="48" style="24" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="25" customWidth="1"/>
     <col min="4" max="4" width="12" style="26" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="38.85546875" style="24" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="24" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="24" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="25" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="24" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="38.88671875" style="24" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="24" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" style="25" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" style="24" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" customHeight="1">
@@ -7199,7 +7199,7 @@
       <c r="M2" s="53"/>
       <c r="N2" s="53"/>
     </row>
-    <row r="3" spans="1:14" s="14" customFormat="1" ht="78.95" customHeight="1">
+    <row r="3" spans="1:14" s="14" customFormat="1" ht="78.900000000000006" customHeight="1">
       <c r="A3" s="58" t="s">
         <v>120</v>
       </c>
@@ -8277,7 +8277,7 @@
       <c r="M32" s="53"/>
       <c r="N32" s="53"/>
     </row>
-    <row r="33" spans="1:14" s="14" customFormat="1" ht="54.95" customHeight="1">
+    <row r="33" spans="1:14" s="14" customFormat="1" ht="54.9" customHeight="1">
       <c r="A33" s="58" t="s">
         <v>153</v>
       </c>
@@ -8869,24 +8869,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="51.44140625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="29.140625" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" customWidth="1"/>
-    <col min="10" max="12" width="24.28515625" customWidth="1"/>
-    <col min="13" max="13" width="33.28515625" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
-    <col min="15" max="15" width="31.85546875" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.109375" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" customWidth="1"/>
+    <col min="10" max="12" width="24.33203125" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
+    <col min="15" max="15" width="31.88671875" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="63">
@@ -10780,21 +10780,21 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="1" max="1" width="48.88671875" customWidth="1"/>
     <col min="2" max="2" width="48" style="24" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="25" customWidth="1"/>
     <col min="4" max="4" width="12" style="26" customWidth="1"/>
-    <col min="5" max="9" width="14.140625" style="24" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="24" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="25" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" style="24" customWidth="1"/>
+    <col min="5" max="9" width="14.109375" style="24" customWidth="1"/>
+    <col min="10" max="10" width="19.109375" style="24" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="24" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="25" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" style="24" customWidth="1"/>
     <col min="14" max="14" width="17" style="24" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" style="25" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" style="24" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" style="24" customWidth="1"/>
+    <col min="15" max="15" width="18.109375" style="25" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" style="24" customWidth="1"/>
+    <col min="17" max="17" width="15.88671875" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="7" customFormat="1" ht="57.75" customHeight="1">
@@ -12471,20 +12471,20 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="1" max="1" width="48.88671875" customWidth="1"/>
     <col min="2" max="2" width="48" style="24" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="25" customWidth="1"/>
     <col min="4" max="4" width="12" style="26" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="38.85546875" style="24" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="24" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="24" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="25" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="24" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="38.88671875" style="24" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="24" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" style="25" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" style="24" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" customHeight="1">
@@ -14225,7 +14225,7 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14239,21 +14239,21 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="51.44140625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="29.140625" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" customWidth="1"/>
-    <col min="10" max="12" width="24.28515625" customWidth="1"/>
-    <col min="13" max="13" width="33.28515625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="31.85546875" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.109375" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" customWidth="1"/>
+    <col min="10" max="12" width="24.33203125" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="31.88671875" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="63">
@@ -16365,26 +16365,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:P7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScale="55" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="54.44140625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" customWidth="1"/>
-    <col min="11" max="13" width="24.28515625" customWidth="1"/>
-    <col min="14" max="14" width="33.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="31.85546875" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" customWidth="1"/>
+    <col min="7" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" customWidth="1"/>
+    <col min="11" max="13" width="24.33203125" customWidth="1"/>
+    <col min="14" max="14" width="33.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="31.88671875" customWidth="1"/>
+    <col min="17" max="17" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="63">
@@ -18047,7 +18046,7 @@
       </c>
       <c r="Q40" s="83"/>
     </row>
-    <row r="41" spans="1:17" ht="42.95" customHeight="1">
+    <row r="41" spans="1:17" ht="42.9" customHeight="1">
       <c r="A41" s="55">
         <v>40</v>
       </c>
@@ -18091,7 +18090,7 @@
       </c>
       <c r="Q41" s="80"/>
     </row>
-    <row r="42" spans="1:17" ht="42.95" customHeight="1">
+    <row r="42" spans="1:17" ht="42.9" customHeight="1">
       <c r="A42" s="55">
         <v>41</v>
       </c>
@@ -18135,7 +18134,7 @@
       </c>
       <c r="Q42" s="80"/>
     </row>
-    <row r="43" spans="1:17" ht="42.95" customHeight="1">
+    <row r="43" spans="1:17" ht="42.9" customHeight="1">
       <c r="A43" s="55">
         <v>42</v>
       </c>
@@ -18179,7 +18178,7 @@
       </c>
       <c r="Q43" s="80"/>
     </row>
-    <row r="44" spans="1:17" ht="42.95" customHeight="1">
+    <row r="44" spans="1:17" ht="42.9" customHeight="1">
       <c r="A44" s="55">
         <v>43</v>
       </c>
@@ -18223,7 +18222,7 @@
       </c>
       <c r="Q44" s="80"/>
     </row>
-    <row r="45" spans="1:17" ht="42.95" customHeight="1">
+    <row r="45" spans="1:17" ht="42.9" customHeight="1">
       <c r="A45" s="55">
         <v>44</v>
       </c>
@@ -18267,7 +18266,7 @@
       </c>
       <c r="Q45" s="80"/>
     </row>
-    <row r="46" spans="1:17" ht="42.95" customHeight="1">
+    <row r="46" spans="1:17" ht="42.9" customHeight="1">
       <c r="A46" s="55">
         <v>45</v>
       </c>
@@ -18311,7 +18310,7 @@
       </c>
       <c r="Q46" s="80"/>
     </row>
-    <row r="47" spans="1:17" ht="42.95" customHeight="1">
+    <row r="47" spans="1:17" ht="42.9" customHeight="1">
       <c r="A47" s="55">
         <v>46</v>
       </c>
@@ -18355,7 +18354,7 @@
       </c>
       <c r="Q47" s="80"/>
     </row>
-    <row r="48" spans="1:17" ht="42.95" customHeight="1">
+    <row r="48" spans="1:17" ht="42.9" customHeight="1">
       <c r="A48" s="92">
         <v>47</v>
       </c>
@@ -18399,7 +18398,7 @@
       </c>
       <c r="Q48" s="80"/>
     </row>
-    <row r="49" spans="1:16" ht="42.95" customHeight="1">
+    <row r="49" spans="1:16" ht="42.9" customHeight="1">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="54"/>
@@ -18432,7 +18431,7 @@
       <c r="O49" s="19"/>
       <c r="P49" s="82"/>
     </row>
-    <row r="50" spans="1:16" ht="32.450000000000003" customHeight="1"/>
+    <row r="50" spans="1:16" ht="32.4" customHeight="1"/>
   </sheetData>
   <sortState ref="E2:P48">
     <sortCondition ref="M2:M48"/>
